--- a/参考资料汇总.xlsx
+++ b/参考资料汇总.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -10,8 +10,10 @@
     <sheet name="menu" sheetId="1" r:id="rId1"/>
     <sheet name="图形及音频资源制作工具与获取网站汇总" sheetId="2" r:id="rId2"/>
     <sheet name="UNITY官方资料链接" sheetId="3" r:id="rId3"/>
+    <sheet name="Unity各种功能实现" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="3">REPLACE(INDEX(sn,ROW(图形及音频资源制作工具与获取网站汇总!A1)),1,FIND("]",INDEX(sn,ROW(图形及音频资源制作工具与获取网站汇总!A1))),)</definedName>
     <definedName name="_xlnm.Sheet_Title">REPLACE(INDEX(sn,ROW(图形及音频资源制作工具与获取网站汇总!A1)),1,FIND("]",INDEX(sn,ROW(图形及音频资源制作工具与获取网站汇总!A1))),)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +276,164 @@
   <si>
     <t>来源：
 https://www.coursera.org/learn/unity-yinqing-youxi-kaifa/supplement/tBqSq/fu-jia-yue-du-unityguan-fang-zi-liao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity原生实现录音功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.manew.com/thread-48648-1-1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using UnityEngine;
+using System.Collections;
+using System.Collections.Generic;
+public class MicphoneTest : MonoBehaviour
+{
+    AudioSource _audio;
+    AudioSource audio
+    {
+        get
+        {
+            if (_audio == null)
+            {
+                _audio = gameObject.AddComponent&lt;AudioSource&gt;();
+            }
+            return _audio;
+        }
+    }
+    void Start()
+    {
+        string[] ms = Microphone.devices;
+        deviceCount = ms.Length;
+        if (deviceCount == 0)
+        {
+            Log("no microphone found");
+        }
+    }
+    string sLog = "";
+    void Log(string log)
+    {
+        sLog += log;
+        sLog += "\r\n";
+    }
+    int deviceCount;
+    string sFrequency = "10000";
+    void OnGUI()
+    {
+        if (deviceCount &gt; 0)
+        {
+            GUILayout.BeginHorizontal();
+            if (!Microphone.IsRecording(null) &amp;&amp; GUILayout.Button("Start", GUILayout.Height(Screen.height / 20), GUILayout.Width(Screen.width / 5)))
+            {
+                StartRecord();
+            }
+            if (Microphone.IsRecording(null) &amp;&amp; GUILayout.Button("Stop", GUILayout.Height(Screen.height / 20), GUILayout.Width(Screen.width / 5)))
+            {
+                StopRecord();
+            }
+            if (!Microphone.IsRecording(null) &amp;&amp; GUILayout.Button("Play", GUILayout.Height(Screen.height / 20), GUILayout.Width(Screen.width / 5)))
+            {
+                PlayRecord();
+            }
+            if (!Microphone.IsRecording(null) &amp;&amp; GUILayout.Button("Print", GUILayout.Height(Screen.height / 20), GUILayout.Width(Screen.width / 5)))
+            {
+                PrintRecord();
+            }
+            sFrequency = GUILayout.TextField(sFrequency, GUILayout.Width(Screen.width / 5), GUILayout.Height(Screen.height / 20));
+            GUILayout.EndHorizontal();
+        }
+        GUILayout.Label(sLog);
+    }
+    void StartRecord()
+    {
+        audio.Stop();
+        audio.loop = false;
+        audio.mute = true;
+        audio.clip = Microphone.Start(null, false, 1, int.Parse(sFrequency));    
+        while (!(Microphone.GetPosition(null) &gt; 0))
+        {
+        }
+        audio.Play();
+        Log("StartRecord");
+    }
+    void StopRecord()
+    {
+        if (!Microphone.IsRecording(null))
+        {
+            return;
+        }
+        Microphone.End(null);
+        audio.Stop();
+    }
+    void PrintRecord()
+    {
+        if (Microphone.IsRecording(null))
+        {
+            return;
+        }
+        byte[] data = GetClipData();
+        string slog = "total length:" + data.Length + " time:" + audio.time;
+        Log(slog);
+    }
+    void PlayRecord()
+    {
+        if (Microphone.IsRecording(null))
+        {
+            return;
+        }
+        if (audio.clip == null)
+        {
+            return;
+        }
+        audio.mute = false;
+        audio.loop = false;
+        audio.Play();
+    }
+    public byte[] GetClipData()
+    {
+        if (audio.clip == null)
+        {
+            Debug.Log("GetClipData audio.clip is null");
+            return null;
+        }
+        float[] samples = new float[audio.clip.samples];
+        audio.clip.GetData(samples, 0);
+        byte[] outData = new byte[samples.Length * 2];
+        int rescaleFactor = 32767;
+        for (int i = 0; i &lt; samples.Length; i++)
+        {
+            short temshort = (short)(samples[i] * rescaleFactor);
+            byte[] temdata = System.BitConverter.GetBytes(temshort);
+            outData[i * 2] = temdata[0];
+            outData[i * 2 + 1] = temdata[1];
+        }
+        if (outData == null || outData.Length &lt;= 0)
+        {
+            Debug.Log("GetClipData intData is null");
+            return null;
+        }
+        return outData;
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity各种功能实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,8 +471,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -392,12 +565,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -680,47 +863,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="130" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="10">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="10" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:3" s="10" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A3" s="10">
+        <f t="shared" ref="A3:A4" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="图形及音频资源制作工具与获取网站汇总!A1" display="图形及音频资源制作工具与获取网站汇总"/>
-    <hyperlink ref="A3" location="UNITY官方资料链接!A1" display="UNITY官方资料链接"/>
+    <hyperlink ref="B2" location="图形及音频资源制作工具与获取网站汇总!A1" display="图形及音频资源制作工具与获取网站汇总"/>
+    <hyperlink ref="B3" location="UNITY官方资料链接!A1" display="UNITY官方资料链接"/>
+    <hyperlink ref="B4" location="Unity各种功能实现!A1" display="Unity各种功能实现"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -744,8 +945,8 @@
     <col min="8" max="8" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="18">
-      <c r="A1" s="11" t="str">
+    <row r="1" spans="1:8" s="12" customFormat="1" ht="18">
+      <c r="A1" s="12" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>图形及音频资源制作工具与获取网站汇总</v>
       </c>
@@ -1012,8 +1213,8 @@
     <col min="2" max="2" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="18">
-      <c r="A1" s="11" t="str">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="18">
+      <c r="A1" s="12" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>UNITY官方资料链接</v>
       </c>
@@ -1085,4 +1286,77 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="46.125" customWidth="1"/>
+    <col min="3" max="3" width="91.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="12" customFormat="1" ht="18">
+      <c r="A1" s="12" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>Unity各种功能实现</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="18"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="18"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="18"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="18"/>
+    </row>
+    <row r="13" spans="1:3" s="13" customFormat="1">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>